--- a/quiz/Quiz_Network_03_Key.xlsx
+++ b/quiz/Quiz_Network_03_Key.xlsx
@@ -1,62 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D3177-56EE-E149-8AA3-C6331B3E3811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F5D30-0A44-B64F-9E5E-DACB675086AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-25460" windowWidth="31040" windowHeight="19780" activeTab="2" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="32180" windowHeight="20540" activeTab="4" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="3" r:id="rId1"/>
-    <sheet name="Problem" sheetId="1" r:id="rId2"/>
-    <sheet name="Base" sheetId="7" r:id="rId3"/>
+    <sheet name="Problem A" sheetId="1" r:id="rId2"/>
+    <sheet name="Problem B" sheetId="8" r:id="rId3"/>
+    <sheet name="Base A" sheetId="7" r:id="rId4"/>
+    <sheet name="Base B" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="damax">Base!$O$19</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Base!$C$19:$L$19</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Base!$M$11:$M$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Base!$M$15:$M$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Base!$M$23:$M$32</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Base!$M$6:$M$8</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Base!$M$3</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Base!$O$11:$O$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Base!$O$15:$O$16</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Base!$O$23:$O$32</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">Base!$O$6:$O$8</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="damax" localSheetId="4">'Base B'!$O$19</definedName>
+    <definedName name="damax">'Base A'!$O$19</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Base A'!$C$19:$L$19</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Base B'!$C$19:$L$19</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Base A'!$M$11:$M$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Base B'!$M$11:$M$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Base A'!$M$15:$M$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Base B'!$M$15:$M$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Base A'!$M$23:$M$32</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Base B'!$M$23:$M$32</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Base A'!$M$6:$M$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Base B'!$M$6:$M$8</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Base A'!$M$6:$M$8</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Base A'!$M$3</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Base B'!$M$3</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Base A'!$O$11:$O$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'Base B'!$O$11:$O$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Base A'!$O$15:$O$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Base B'!$O$15:$O$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Base A'!$O$23:$O$32</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Base B'!$O$23:$O$32</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Base A'!$O$6:$O$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Base B'!$O$6:$O$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Base A'!$O$6:$O$8</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>Email</t>
   </si>
@@ -167,6 +211,18 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Houston to Waco limited to 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Abilene to Omaha limited to 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Dallas to Abilene limited to 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Waco to Tulsa limited to 135</t>
   </si>
 </sst>
 </file>
@@ -178,7 +234,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,8 +280,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -324,7 +393,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -374,6 +443,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -404,10 +478,10 @@
       <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>811752</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144021</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52371</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -423,7 +497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190499" y="139699"/>
-          <a:ext cx="4745480" cy="3454270"/>
+          <a:ext cx="4810944" cy="1902775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -493,7 +567,265 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Keeping with the current layout/strategy, add constraints limiting</a:t>
+            <a:t>Keeping with the current layout/strategy known as "long form" and</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- add formulas and numbers where appropriate </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- add two new constraints limiting travel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   Houston to Waco limited to 90</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   Abilene to Omaha limited to 80</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- use Solver to minimize shipping costs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Iosevka Term" panose="02000509000000000000" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Iosevka Term" panose="02000509000000000000" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>735815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66AE9E0-B9BF-E348-8FB7-E12216A7AF91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4863315" cy="2177724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Congratulations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on your new appointment to Nachtfliegen's Optimization Department.  Your first exciting assignment is to complete a work-in-progress in worksheet "Base".  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Keeping with the current layout/strategy known as "long form" and</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- add formulas and numbers where appropriate </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- add two new constraints limiting travel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   Dallas to Abilene limited to 70</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   Waco to Tulsa limited to 135</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- use Solver to minimize shipping costs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -855,11 +1187,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0A4C2A-A8D4-724C-8ED5-CA155AB95914}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="255" zoomScaleNormal="255" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482C2B2-EC08-7747-928D-A9A36D7A0AB7}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,7 +1294,7 @@
       </c>
       <c r="M3" s="11">
         <f>SUMPRODUCT(C3:L3,$C$19:$L$19)</f>
-        <v>37000</v>
+        <v>37450</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -1277,34 +1622,34 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C19" s="18">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18">
+        <v>90</v>
+      </c>
+      <c r="E19" s="18">
+        <v>80</v>
+      </c>
+      <c r="F19" s="18">
         <v>0</v>
       </c>
-      <c r="D19" s="18">
-        <v>100</v>
-      </c>
-      <c r="E19" s="18">
-        <v>70</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>60</v>
+      </c>
+      <c r="I19" s="18">
+        <v>80</v>
+      </c>
+      <c r="J19" s="18">
         <v>10</v>
       </c>
-      <c r="G19" s="18">
-        <v>35</v>
-      </c>
-      <c r="H19" s="18">
-        <v>25</v>
-      </c>
-      <c r="I19" s="18">
-        <v>90</v>
-      </c>
-      <c r="J19" s="18">
-        <v>15</v>
-      </c>
       <c r="K19" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" s="18">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s">
         <v>29</v>
@@ -1380,6 +1725,783 @@
       </c>
       <c r="M21" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="20">
+        <f t="shared" ref="M23:M32" si="3">SUMPRODUCT(C23:L23,$C$19:$L$19)</f>
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="20">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="24">
+        <v>90</v>
+      </c>
+      <c r="P24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="20">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q31" si="4">damax</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="20">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="O28">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="25">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="20">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="24">
+        <v>80</v>
+      </c>
+      <c r="P29">
+        <v>80</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="O32">
+        <f>damax</f>
+        <v>480</v>
+      </c>
+      <c r="Q32">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D654AB-2B6D-D340-80C2-B881D90795BD}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="10">
+        <v>80</v>
+      </c>
+      <c r="E3" s="10">
+        <v>60</v>
+      </c>
+      <c r="F3" s="10">
+        <v>90</v>
+      </c>
+      <c r="G3" s="10">
+        <v>50</v>
+      </c>
+      <c r="H3" s="10">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10">
+        <v>90</v>
+      </c>
+      <c r="J3" s="10">
+        <v>100</v>
+      </c>
+      <c r="K3" s="10">
+        <v>85</v>
+      </c>
+      <c r="L3" s="10">
+        <v>80</v>
+      </c>
+      <c r="M3" s="11">
+        <f>SUMPRODUCT(C3:L3,$C$19:$L$19)</f>
+        <v>37000</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="20">
+        <f t="shared" ref="M6:M8" si="0">SUMPRODUCT(C6:L6,$C$19:$L$19)</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="17">
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <f>SUM(O6:O8)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="20">
+        <f t="shared" ref="M11:M12" si="1">SUMPRODUCT(C11:L11,$C$19:$L$19)</f>
+        <v>90</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="17">
+        <v>150</v>
+      </c>
+      <c r="P12">
+        <f>SUM(O11:O12)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="20">
+        <f t="shared" ref="M15:M16" si="2">SUMPRODUCT(C15:L15,$C$19:$L$19)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <v>100</v>
+      </c>
+      <c r="E19" s="18">
+        <v>70</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18">
+        <v>35</v>
+      </c>
+      <c r="H19" s="18">
+        <v>25</v>
+      </c>
+      <c r="I19" s="18">
+        <v>90</v>
+      </c>
+      <c r="J19" s="18">
+        <v>15</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>135</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19">
+        <f>SUM(O5:O12)</f>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1450,7 +2572,8 @@
         <v>27</v>
       </c>
       <c r="O24">
-        <v>90</v>
+        <f>damax</f>
+        <v>480</v>
       </c>
       <c r="P24">
         <v>90</v>
@@ -1481,11 +2604,10 @@
         <v>70</v>
       </c>
       <c r="O25">
-        <f>damax</f>
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="P25">
-        <f>damax</f>
+        <f t="shared" ref="O25:P29" si="4">damax</f>
         <v>480</v>
       </c>
       <c r="Q25">
@@ -1513,15 +2635,15 @@
         <v>10</v>
       </c>
       <c r="O26">
-        <f>damax</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="P26">
-        <f>damax</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="Q26">
-        <f>damax</f>
+        <f t="shared" ref="Q26:Q31" si="5">damax</f>
         <v>480</v>
       </c>
     </row>
@@ -1546,15 +2668,15 @@
         <v>35</v>
       </c>
       <c r="O27">
-        <f>damax</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="P27">
-        <f>damax</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="Q27">
-        <f>damax</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
     </row>
@@ -1579,15 +2701,15 @@
         <v>25</v>
       </c>
       <c r="O28">
-        <f>damax</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="P28">
-        <f>damax</f>
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="Q28">
-        <f>damax</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
     </row>
@@ -1615,13 +2737,14 @@
         <v>27</v>
       </c>
       <c r="O29">
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>480</v>
       </c>
       <c r="P29">
         <v>80</v>
       </c>
       <c r="Q29">
-        <f>damax</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
     </row>
@@ -1646,15 +2769,15 @@
         <v>15</v>
       </c>
       <c r="O30">
-        <f>damax</f>
+        <f t="shared" ref="O30:P32" si="6">damax</f>
         <v>480</v>
       </c>
       <c r="P30">
-        <f>damax</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="Q30">
-        <f>damax</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
     </row>
@@ -1679,15 +2802,15 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f>damax</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="P31">
-        <f>damax</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="Q31">
-        <f>damax</f>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
     </row>
@@ -1712,15 +2835,24 @@
         <v>135</v>
       </c>
       <c r="O32">
-        <f>damax</f>
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="P32">
-        <f>damax</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="Q32">
         <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
